--- a/datos.csv.xlsx
+++ b/datos.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupospira-my.sharepoint.com/personal/melissa_mimbelar_spira_pe/Documents/Escritorio/ProyectoPDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{2060ED76-BD87-4434-B650-A86C33B561A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{548167D8-BB3C-47F3-8F88-A73C367EFE02}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{2060ED76-BD87-4434-B650-A86C33B561A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A7E960-4E89-4EAE-BCBC-DE73F36A9D08}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3447" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="641">
   <si>
     <t>CONSULTORA</t>
   </si>
@@ -1995,6 +1995,29 @@
   </si>
   <si>
     <t>1. Practicar escucha activa y validación emocional: en cada reunión relevante, cerrar intervenciones con una frase empática (“Entiendo tu punto”, “Gracias por aclararlo”) para evitar reacciones impulsivas.</t>
+  </si>
+  <si>
+    <t>MALDONADO AYMACHOQUE NOEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Leer bibliografía recomendada, a su líder presentarle acta de compromisos y al equipo dictarle una capacitación al respecto de los aprendizajes.
+</t>
+  </si>
+  <si>
+    <t>Ivan Robles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Liderar la mejora objetiva del área de planificación, asegurandose del cumplimiento de KPI'S mensuales. (KPI'S: Tratamiento de ordenes de trabajo y asegurar repuestos críticos de la planta) trabajar con las 3 personas de su área. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensamiento estrategico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Liderar reuniones con el área de contratos (seguimiento a la Adjundicación oportuna de los servicios de mantenimiento) 
+</t>
+  </si>
+  <si>
+    <t>2. Liderar reuniones con área de costos, para asegurar el cumplimiento de metas presupuestales o gestionar adicionales de ser el caso.</t>
   </si>
 </sst>
 </file>
@@ -2497,6 +2520,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2520,9 +2546,6 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2878,10 +2901,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L384"/>
+  <dimension ref="A2:L388"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="A385" sqref="A385:XFD414"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A380" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="A385" sqref="A385:I388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2927,10 +2950,10 @@
       <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="59"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="9" t="s">
         <v>10</v>
       </c>
@@ -4513,7 +4536,7 @@
       <c r="C52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="53" t="s">
         <v>307</v>
       </c>
       <c r="E52" s="30" t="s">
@@ -13558,8 +13581,8 @@
         <v>103</v>
       </c>
       <c r="J334" s="27"/>
-      <c r="K334" s="55"/>
-      <c r="L334" s="56"/>
+      <c r="K334" s="56"/>
+      <c r="L334" s="57"/>
     </row>
     <row r="335" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
@@ -13590,8 +13613,8 @@
         <v>103</v>
       </c>
       <c r="J335" s="27"/>
-      <c r="K335" s="55"/>
-      <c r="L335" s="56"/>
+      <c r="K335" s="56"/>
+      <c r="L335" s="57"/>
     </row>
     <row r="336" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
@@ -13622,8 +13645,8 @@
         <v>103</v>
       </c>
       <c r="J336" s="27"/>
-      <c r="K336" s="57"/>
-      <c r="L336" s="56"/>
+      <c r="K336" s="58"/>
+      <c r="L336" s="57"/>
     </row>
     <row r="337" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
@@ -13654,8 +13677,8 @@
         <v>103</v>
       </c>
       <c r="J337" s="28"/>
-      <c r="K337" s="55"/>
-      <c r="L337" s="56"/>
+      <c r="K337" s="56"/>
+      <c r="L337" s="57"/>
     </row>
     <row r="338" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
@@ -13686,8 +13709,8 @@
         <v>103</v>
       </c>
       <c r="J338" s="28"/>
-      <c r="K338" s="60"/>
-      <c r="L338" s="56"/>
+      <c r="K338" s="61"/>
+      <c r="L338" s="57"/>
     </row>
     <row r="339" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
@@ -13718,8 +13741,8 @@
         <v>103</v>
       </c>
       <c r="J339" s="28"/>
-      <c r="K339" s="57"/>
-      <c r="L339" s="56"/>
+      <c r="K339" s="58"/>
+      <c r="L339" s="57"/>
     </row>
     <row r="340" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
@@ -13750,8 +13773,8 @@
         <v>103</v>
       </c>
       <c r="J340" s="28"/>
-      <c r="K340" s="53"/>
-      <c r="L340" s="54"/>
+      <c r="K340" s="54"/>
+      <c r="L340" s="55"/>
     </row>
     <row r="341" spans="1:12" ht="36" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
@@ -15027,6 +15050,122 @@
       </c>
       <c r="I384" s="26" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A385" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B385" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F385" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H385" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="I385" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A386" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B386" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F386" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H386" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="I386" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A387" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B387" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F387" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H387" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="I387" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A388" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B388" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F388" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="I388" s="26" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -15308,15 +15447,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="ba5b06ae-c424-42e0-9998-370f09f8b010" xsi:nil="true"/>
@@ -15325,6 +15455,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15347,14 +15486,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{007F37B9-E591-410C-8989-A1764274EC4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C46EAFD-AE09-40C9-BA60-F1D26727DDB5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -15363,4 +15494,12 @@
     <ds:schemaRef ds:uri="880a6393-7c42-4912-baf8-33c6004b0c47"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{007F37B9-E591-410C-8989-A1764274EC4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>